--- a/DOWNLOADS/EDITAIS/U_102326_E_900042025/U_102326_E_900042025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_102326_E_900042025/U_102326_E_900042025_master.xlsx
@@ -49,7 +49,7 @@
     <t>Veículos Teleguiados Veículos Teleguiados Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 380,1MM, Comprimento: 347,5MM, Velocidade Ascensão Vertical: 8M/S, Peso Máximo: 1.100G, Características Adicionais: Georreferenciamento, Sensor Multiespectral Cmos De, Material: Poliestireno Expandido (Eps) Alta Resistência</t>
   </si>
   <si>
-    <t>Drone multirotor compacto, com ao menos 4 rotores. Peso de decolagem minimo de 400g e máximo de 800g. Tamanho máximo quando dobrado de 250x120x100mm. Altura mínima de decolagem 5000 m. Velocidade horizontal mínima: 17m/s. Velocidade de asensão vertical mínima: 6m/s. Estabilidade em condições ventos de 10m/s (36km/h). Sistema de posicionamento por satélite GPS, Galileo e BeiDou. Câmera estabilizada por gimbal de 3 eixos, com inclinação vertical controlável de no mínimo -90º a +60º. O sistema deverá capturar fotos com resolução mínima de 48 MP e gravar vídeos em 4K a 60fps ou superior, com bitrate mínimo de 100 Mbps, em formato MP4. Deverá possuir sistema de zoom óptico ou híbrido. Carregamento do drone por USB-C. Ao menos 3 baterias Li-ion 4S compatíveis com o modelo inclusas. Carregador 100-240V de múltiplas baterias compatível com o modelo incluso. Controle Remoto. Armazenamento interno de no mínimo: 16GB. Acessórios para armazenamento e transporte.</t>
+    <t>Drone multirotor compacto, com ao menos 4 rotores. Peso máximo de 400g. Tamanho máximo quando dobrado de 250x70x70mm. Velocidade horizontal mínima: 15m/s. Velocidade vertical mínima: 4m/s. Estabilidade em condições ventos de, no mínimo, 50Km/h e em condições de rajada de pelo menos 80Km/h. Sistema de posicionamento por satélite GPS e GLONASS. Câmera com gimbal que permita orientação vertical de 180º. Resolução de vídeo de 4k, full hd e resolução mínima de 21 MegaPixel para fotos. Video bitrate 10Mbps. Formato MP4. Zoom digital. Estabilização de imagem nos 3 eixos. Carregamento do drone por USB-A e USB-C. Ao menos 4 baterias LIPO inclusas. Carregador 100-240V incluso para pelo menos as 4 baterias simultâneas. Autonomia de voo com uma bateria de pelo menos 25 minutos. Modo de “retorno automático à base” em condições críticas. Bolsa ou mala de transporte inclusa. Cartão tipo SD com no mínimo 16GB. Transmissão por wifi 2.4 - 5.8 GHz. Alcance de transmissão de pelo menos 4Km. Possibilidade de programação em SDK ou similar pelo usuário que permita acesso direto a partir de dispositivo móvel remoto às funcionalidades do drone (controle dos rotores, acesso aos vídeos, sensores, configurações, etc.) através de API.</t>
   </si>
   <si>
     <t>Unidade</t>
